--- a/gowalla-compiled.xlsx
+++ b/gowalla-compiled.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Eigenvector" sheetId="1" r:id="rId1"/>
     <sheet name="DegreeCentrality" sheetId="2" r:id="rId2"/>
+    <sheet name="PageRank" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,25 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve"> (460</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (2187</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (528</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (506</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Node</t>
   </si>
@@ -46,48 +29,6 @@
     <t>Eigenvector Value</t>
   </si>
   <si>
-    <t>(308</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.07492751411567221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.051808332061651155)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02757006968818353)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.020275700696881838)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.019736507452057583)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (441</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.019329569154077013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.01483290096139173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.010626176306017601)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.009934381199450634)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00934432066737881)</t>
-  </si>
-  <si>
     <t>Node 308</t>
   </si>
   <si>
@@ -97,33 +38,66 @@
     <t>Node 2187</t>
   </si>
   <si>
-    <t>Node 2010</t>
-  </si>
-  <si>
     <t>Node 221</t>
   </si>
   <si>
     <t>Node 528</t>
   </si>
   <si>
-    <t>Node 2256</t>
-  </si>
-  <si>
     <t>Node 1150</t>
   </si>
   <si>
     <t>Node 506</t>
   </si>
   <si>
-    <t>Node 1451</t>
+    <t>Degree Centrality</t>
+  </si>
+  <si>
+    <t>Node 441</t>
+  </si>
+  <si>
+    <t>Node 616</t>
+  </si>
+  <si>
+    <t>Node 208</t>
+  </si>
+  <si>
+    <t>PageRank Centrality</t>
+  </si>
+  <si>
+    <t>Node 2216</t>
+  </si>
+  <si>
+    <t>Eigenvector</t>
+  </si>
+  <si>
+    <t>PageRank</t>
+  </si>
+  <si>
+    <t>DegreeCentrality</t>
+  </si>
+  <si>
+    <t>Clustering Coefficient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,6 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -163,40 +145,192 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -210,6 +344,34 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -223,6 +385,34 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,137 +742,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
         <v>308</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="5">
         <v>0.35399999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>308</v>
+      </c>
+      <c r="G2" s="10">
+        <v>8.6483952183040599E-4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>460</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="7">
         <v>0.13769999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="8">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>460</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5.5427985212471E-3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
         <v>2187</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="7">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="8">
+        <v>4.9034000000000002E-4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2187</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2.0333071231274799E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
         <v>2010</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="7">
         <v>0.1094</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
+      <c r="C5" s="8">
+        <v>4.7469E-4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.7030000000000007E-3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2010</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2.0639754461157699E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>221</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="7">
         <v>0.1075</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
+      <c r="C6" s="8">
+        <v>0.1075</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>221</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.9134611416986799E-4</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
         <v>528</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="7">
         <v>9.9099999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
+      <c r="C7" s="8">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>528</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5.1248567670650102E-3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
         <v>2256</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="7">
         <v>9.74E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
+      <c r="C8" s="8">
+        <v>4.1773041878806998E-4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.8742499999999993E-3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2256</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.1973011029098499E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
         <v>1150</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="7">
         <v>9.7299999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
+      <c r="C9" s="8">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1150</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.71842288662766E-3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <v>506</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="7">
         <v>8.9399999999999993E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
+      <c r="C10" s="8">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>506</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.1659808423144201E-3</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
         <v>1451</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="7">
         <v>8.6199999999999999E-2</v>
       </c>
+      <c r="C11" s="8">
+        <v>4.7190208394308199E-4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7.6962200000000001E-3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1451</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.6436037586070599E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -695,96 +1061,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>308</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>221</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1">
+        <v>506</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1150</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>460</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" s="1">
+        <v>441</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>528</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B9" s="1">
+        <v>616</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+      <c r="B11" s="1">
+        <v>2187</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.1400000000000006E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.7299999999999999E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.9399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="C5" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.7299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.07E-3</v>
+      </c>
+      <c r="C9" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="C10" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="C11" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/gowalla-compiled.xlsx
+++ b/gowalla-compiled.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Eigenvector" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -317,10 +317,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
